--- a/Przypadki testowe.xlsx
+++ b/Przypadki testowe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wojte\iCloudDrive\Desktop\Studia\Podstawy testowania oprogramowania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciechmankowski/project/automatic-tests-of-helion.pl-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0BBA8-3E37-400F-BDEA-52C149E4A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F5931-2919-9F4B-9D31-1DE5878F0AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{CF732D77-1D20-BC4D-9E25-F9D36159D73F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CF732D77-1D20-BC4D-9E25-F9D36159D73F}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Test" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="187">
   <si>
     <t>L.p.</t>
   </si>
@@ -610,6 +610,12 @@
     <t>1. Klikam na listę rozwijaną. 
 2 Z listy wybieram język 'polski'
 3. przeładuje się strona</t>
+  </si>
+  <si>
+    <t>Konfikuraja</t>
+  </si>
+  <si>
+    <t>WINDOWS Chrome, MacOs Safarii i Chrome</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -689,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1010,23 +1019,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57EEBFC-225D-4A65-BAC2-C506C3F1C8F5}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:D16"/>
+    <sheetView topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1045,8 +1056,11 @@
       <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1065,8 +1079,11 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="G3" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1105,8 +1125,11 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -1125,8 +1148,11 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -1145,8 +1171,11 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -1165,8 +1194,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -1185,8 +1217,11 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G8" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -1205,8 +1240,11 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1225,8 +1263,11 @@
       <c r="F10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G10" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -1245,88 +1286,91 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -1353,22 +1397,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CC5A8E-474E-4FF1-8B4C-5D91BAC822CE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="225" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1388,7 +1432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -1408,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -1425,7 +1469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -1442,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -1456,7 +1500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
@@ -1470,7 +1514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
   </sheetData>
@@ -1495,21 +1539,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89D6F61-368C-2B44-B9E6-5EAA9CE402AF}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1529,64 +1573,64 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -1606,78 +1650,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>160</v>
       </c>
@@ -1694,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>161</v>
       </c>
@@ -1713,7 +1757,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-    <sortCondition ref="F1:F11"/>
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -1741,16 +1785,16 @@
       <selection activeCell="B34" sqref="B34:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,29 +1808,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1800,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1814,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1828,29 +1872,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1864,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1878,7 +1922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1892,7 +1936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1906,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1920,7 +1964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1931,7 +1975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1945,7 +1989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1959,7 +2003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1970,29 +2014,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2006,7 +2050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2020,7 +2064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2034,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2048,7 +2092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2062,7 +2106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2076,7 +2120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2090,29 +2134,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2123,71 +2167,71 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>29</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="21">
